--- a/Intermediate II/Week 5/workbook/W5_V1 SUMPRODUCT.xlsx
+++ b/Intermediate II/Week 5/workbook/W5_V1 SUMPRODUCT.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nic\Documents\Freelance Training\Maquarie Uni\MOOCS\Course3\Workbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\foongmin\Desktop\excel-skills-for-business\Intermediate II\Week 5\workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E5E204-F488-4552-86B4-81CD44BC85DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9163" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projections &amp; Estimates" sheetId="3" r:id="rId1"/>
@@ -63,14 +64,44 @@
     <definedName name="solver_val" localSheetId="1" hidden="1">24</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -240,11 +271,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="30" x14ac:knownFonts="1">
     <font>
@@ -777,11 +808,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -825,17 +856,17 @@
   <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="3" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="1" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -884,16 +915,16 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="11" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="33" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" fontId="1" fillId="19" borderId="0" xfId="34" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="33"/>
     <xf numFmtId="165" fontId="1" fillId="19" borderId="0" xfId="34" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="33"/>
-    <xf numFmtId="164" fontId="1" fillId="19" borderId="0" xfId="34" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="19" borderId="0" xfId="34" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -908,8 +939,8 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="34" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="25" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
   </cellXfs>
@@ -1277,21 +1308,21 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.61328125" customWidth="1"/>
-    <col min="2" max="3" width="18.4609375" customWidth="1"/>
-    <col min="4" max="4" width="19.61328125" customWidth="1"/>
-    <col min="5" max="5" width="18.4609375" customWidth="1"/>
-    <col min="6" max="6" width="17.3828125" customWidth="1"/>
-    <col min="7" max="7" width="20.921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.3828125" customWidth="1"/>
+    <col min="1" max="1" width="20.6328125" customWidth="1"/>
+    <col min="2" max="3" width="18.453125" customWidth="1"/>
+    <col min="4" max="4" width="19.6328125" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" customWidth="1"/>
+    <col min="6" max="6" width="17.36328125" customWidth="1"/>
+    <col min="7" max="7" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="35" customFormat="1" ht="40.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" s="35" customFormat="1" ht="40.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>41</v>
       </c>
@@ -1303,7 +1334,7 @@
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:8" s="35" customFormat="1" ht="4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" s="35" customFormat="1" ht="4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -1313,7 +1344,7 @@
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" s="26">
         <v>1</v>
       </c>
@@ -1327,7 +1358,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="28" t="s">
         <v>34</v>
       </c>
@@ -1347,7 +1378,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="35" t="s">
         <v>25</v>
       </c>
@@ -1360,10 +1391,16 @@
       <c r="D6" s="25">
         <v>32</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="G6" s="48"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="E6" s="35">
+        <f>SUMPRODUCT(B6:D6,$B$4:$D$4)/SUM($B$4:$D$4)</f>
+        <v>40.000000000000021</v>
+      </c>
+      <c r="G6" s="48" cm="1">
+        <f t="array" ref="G6">SUMPRODUCT(1*(E6:E11&gt;=100))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="35" t="s">
         <v>26</v>
       </c>
@@ -1376,10 +1413,13 @@
       <c r="D7" s="25">
         <v>100</v>
       </c>
-      <c r="E7" s="35"/>
+      <c r="E7" s="35">
+        <f t="shared" ref="E7:E11" si="0">SUMPRODUCT(B7:D7,$B$4:$D$4)/SUM($B$4:$D$4)</f>
+        <v>120</v>
+      </c>
       <c r="F7" s="35"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="35" t="s">
         <v>30</v>
       </c>
@@ -1392,10 +1432,13 @@
       <c r="D8" s="25">
         <v>479.99999999999989</v>
       </c>
-      <c r="E8" s="35"/>
+      <c r="E8" s="35">
+        <f t="shared" si="0"/>
+        <v>590</v>
+      </c>
       <c r="F8" s="35"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="35" t="s">
         <v>27</v>
       </c>
@@ -1408,10 +1451,17 @@
       <c r="D9" s="25">
         <v>40</v>
       </c>
-      <c r="E9" s="35"/>
+      <c r="E9" s="35">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
       <c r="F9" s="35"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G9">
+        <f>SUMPRODUCT(B6:D6,$B$4:$D$4)</f>
+        <v>240.00000000000014</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="35" t="s">
         <v>28</v>
       </c>
@@ -1424,10 +1474,17 @@
       <c r="D10" s="25">
         <v>50</v>
       </c>
-      <c r="E10" s="35"/>
+      <c r="E10" s="35">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
       <c r="F10" s="35"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G10">
+        <f>SUMPRODUCT($B$6:$D$6,B4:D4)</f>
+        <v>240.00000000000014</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="35" t="s">
         <v>29</v>
       </c>
@@ -1440,10 +1497,13 @@
       <c r="D11" s="25">
         <v>29.999999999999915</v>
       </c>
-      <c r="E11" s="35"/>
+      <c r="E11" s="35">
+        <f t="shared" si="0"/>
+        <v>99.999999999999986</v>
+      </c>
       <c r="F11" s="35"/>
     </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="22" t="s">
         <v>31</v>
       </c>
@@ -1452,11 +1512,11 @@
       <c r="D12" s="27"/>
       <c r="E12" s="47">
         <f>SUM(E6:E11)</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F12" s="31"/>
     </row>
-    <row r="13" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A13" s="35"/>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
@@ -1464,13 +1524,13 @@
       <c r="E13" s="35"/>
       <c r="F13" s="31"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C14" s="31"/>
       <c r="D14" s="31"/>
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="33" t="s">
         <v>39</v>
       </c>
@@ -1482,7 +1542,7 @@
       <c r="E15" s="37"/>
       <c r="F15" s="31"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="36">
         <v>0.05</v>
       </c>
@@ -1496,7 +1556,7 @@
       </c>
       <c r="F16" s="31"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="36">
         <v>6.5000000000000002E-2</v>
       </c>
@@ -1510,7 +1570,7 @@
       </c>
       <c r="F17" s="31"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="36">
         <v>0.08</v>
       </c>
@@ -1518,7 +1578,7 @@
       <c r="C18" s="31"/>
       <c r="F18" s="31"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="36">
         <v>9.5000000000000001E-2</v>
       </c>
@@ -1526,7 +1586,7 @@
       <c r="C19" s="31"/>
       <c r="F19" s="31"/>
     </row>
-    <row r="20" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="36">
         <v>0.11</v>
       </c>
@@ -1540,7 +1600,7 @@
       <c r="G20"/>
       <c r="H20" s="31"/>
     </row>
-    <row r="21" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="36">
         <v>0.125</v>
       </c>
@@ -1556,7 +1616,7 @@
       <c r="G21"/>
       <c r="H21" s="31"/>
     </row>
-    <row r="22" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="36">
         <v>0.14000000000000001</v>
       </c>
@@ -1572,7 +1632,7 @@
       <c r="G22"/>
       <c r="H22" s="31"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="36">
         <v>0.155</v>
       </c>
@@ -1584,7 +1644,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="33" t="s">
         <v>36</v>
       </c>
@@ -1596,7 +1656,7 @@
       <c r="G25" s="37"/>
       <c r="H25" s="37"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="32"/>
       <c r="B26" s="38">
         <v>30</v>
@@ -1606,27 +1666,27 @@
         <v>32.5</v>
       </c>
       <c r="D26" s="38">
-        <f t="shared" ref="D26:H26" si="0">C26+2.5</f>
+        <f t="shared" ref="D26:H26" si="1">C26+2.5</f>
         <v>35</v>
       </c>
       <c r="E26" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37.5</v>
       </c>
       <c r="F26" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="G26" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42.5</v>
       </c>
       <c r="H26" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="39">
         <v>0.03</v>
       </c>
@@ -1638,7 +1698,7 @@
       <c r="G27" s="31"/>
       <c r="H27" s="31"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="39">
         <v>0.04</v>
       </c>
@@ -1650,7 +1710,7 @@
       <c r="G28" s="31"/>
       <c r="H28" s="31"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="39">
         <v>0.05</v>
       </c>
@@ -1662,7 +1722,7 @@
       <c r="G29" s="31"/>
       <c r="H29" s="31"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="39">
         <v>0.06</v>
       </c>
@@ -1674,7 +1734,7 @@
       <c r="G30" s="31"/>
       <c r="H30" s="31"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="39">
         <v>0.08</v>
       </c>
@@ -1686,7 +1746,7 @@
       <c r="G31" s="31"/>
       <c r="H31" s="31"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="39">
         <v>0.09</v>
       </c>
@@ -1698,7 +1758,7 @@
       <c r="G32" s="31"/>
       <c r="H32" s="31"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="39">
         <v>0.1</v>
       </c>
@@ -1710,7 +1770,7 @@
       <c r="G33" s="31"/>
       <c r="H33" s="31"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="39">
         <v>0.11</v>
       </c>
@@ -1735,17 +1795,17 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.61328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.61328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.07421875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40.61328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.61328125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.921875" style="1"/>
+    <col min="1" max="1" width="40.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.08984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="16" customFormat="1" ht="40.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" s="16" customFormat="1" ht="40.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>23</v>
       </c>
@@ -1755,7 +1815,7 @@
       <c r="E1" s="14"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:6" s="18" customFormat="1" ht="4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" s="18" customFormat="1" ht="4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -1763,7 +1823,7 @@
       <c r="E2" s="20"/>
       <c r="F2" s="17"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1771,7 +1831,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
@@ -1783,7 +1843,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>49</v>
       </c>
@@ -1800,7 +1860,7 @@
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
@@ -1817,7 +1877,7 @@
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -1834,7 +1894,7 @@
       </c>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -1846,7 +1906,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -1860,7 +1920,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1877,7 +1937,7 @@
       </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
@@ -1894,7 +1954,7 @@
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
@@ -1911,13 +1971,13 @@
       </c>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -1927,7 +1987,7 @@
       </c>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
@@ -1944,7 +2004,7 @@
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>12</v>
       </c>
@@ -1961,7 +2021,7 @@
       </c>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>13</v>
       </c>
@@ -1979,7 +2039,7 @@
       </c>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>24</v>
       </c>
@@ -1996,7 +2056,7 @@
       </c>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="8"/>
       <c r="C19" s="4"/>
@@ -2004,7 +2064,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -2022,37 +2082,37 @@
       </c>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
